--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1588.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1588.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.327651077669414</v>
+        <v>0.4291351437568665</v>
       </c>
       <c r="B1">
-        <v>3.233991707466994</v>
+        <v>0.7030469179153442</v>
       </c>
       <c r="C1">
-        <v>5.576312311878115</v>
+        <v>2.199307680130005</v>
       </c>
       <c r="D1">
-        <v>1.671368050023663</v>
+        <v>4.683483123779297</v>
       </c>
       <c r="E1">
-        <v>0.9176240517660849</v>
+        <v>2.162980556488037</v>
       </c>
     </row>
   </sheetData>
